--- a/WorkBot/refactor/data/orders/A.L. George/CompletedOrders/A.L. George_Triphammer_2025-08-02.xlsx
+++ b/WorkBot/refactor/data/orders/A.L. George/CompletedOrders/A.L. George_Triphammer_2025-08-02.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.00</t>
+          <t>22.00</t>
         </is>
       </c>
     </row>
